--- a/clients.xlsx
+++ b/clients.xlsx
@@ -19421,7 +19421,6 @@
     <col customWidth="1" min="4" max="4" width="14.25"/>
     <col customWidth="1" min="5" max="5" width="29.0"/>
     <col customWidth="1" min="6" max="6" width="17.88"/>
-    <col customWidth="1" min="7" max="7" width="20.63"/>
   </cols>
   <sheetData>
     <row r="1">
